--- a/fhir/core/2.2.0/CodeSystem-request-status-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-request-status-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -48,154 +48,112 @@
     <t>Status</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023-05-04T21:35:52+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Denmark</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Codes identifying the stage lifecycle stage of a request</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Compositional</t>
+  </si>
+  <si>
+    <t>Version Needed?</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>Supplements</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/request-status</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>draft</t>
   </si>
   <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-04-30T22:07:34+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Denmark</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Codes identifying the stage lifecycle stage of a request</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>Compositional</t>
-  </si>
-  <si>
-    <t>Version Needed?</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>supplement</t>
-  </si>
-  <si>
-    <t>Supplements</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/request-status</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>The request has been created but is not yet complete or ready for action.</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>The request is in force and ready to be acted upon.</t>
-  </si>
-  <si>
     <t>on-hold</t>
   </si>
   <si>
-    <t>On Hold</t>
-  </si>
-  <si>
-    <t>The request (and any implicit authorization to act) has been temporarily withdrawn but is expected to resume in the future.</t>
-  </si>
-  <si>
     <t>revoked</t>
   </si>
   <si>
-    <t>Revoked</t>
-  </si>
-  <si>
-    <t>The request (and any implicit authorization to act) has been terminated prior to the known full completion of the intended actions. No further activity should occur.</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>The activity described by the request has been fully performed. No further activity will occur.</t>
-  </si>
-  <si>
     <t>entered-in-error</t>
   </si>
   <si>
-    <t>Entered in Error</t>
-  </si>
-  <si>
-    <t>This request should never have existed and should be considered 'void'. (It is possible that real-world decisions were based on it. If real-world activity has occurred, the status should be "revoked" rather than "entered-in-error".).</t>
-  </si>
-  <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>The authoring system does not know which of the status values currently applies for this request.  Note: This concept is not to be used for "other"  - one of the listed statuses is presumed to apply, but the authoring/source system does not know which.</t>
   </si>
 </sst>
 </file>
@@ -531,98 +489,70 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/core/2.2.0/CodeSystem-request-status-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-request-status-dk-supplement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
